--- a/Excel-XLSX/UN-EGU.xlsx
+++ b/Excel-XLSX/UN-EGU.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>x4Ri5V</t>
+    <t>3A0m7u</t>
   </si>
   <si>
     <t>1968</t>
@@ -123,7 +123,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -648,8 +648,8 @@
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>34</v>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-EGU.xlsx
+++ b/Excel-XLSX/UN-EGU.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>3A0m7u</t>
+    <t>hDL2q0</t>
   </si>
   <si>
     <t>1968</t>
@@ -648,8 +648,8 @@
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
+      <c r="V2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-EGU.xlsx
+++ b/Excel-XLSX/UN-EGU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -124,6 +124,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -508,7 +526,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -649,6 +667,74 @@
         <v>35</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-EGU.xlsx
+++ b/Excel-XLSX/UN-EGU.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>hDL2q0</t>
+    <t>a5Q5Q1</t>
   </si>
   <si>
     <t>1968</t>
